--- a/_Projekt-Steuerung_Autonom-Fahrendes-Auto_11_11032024.xlsx
+++ b/_Projekt-Steuerung_Autonom-Fahrendes-Auto_11_11032024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vds66\redirectedfolders$\students\190246\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\190246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46C595B-EDC3-441E-AE83-8423DBB16316}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B728F9-2912-45A7-A8C1-185B14C5E16D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="500" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="241">
   <si>
     <t>Projektstart:</t>
   </si>
@@ -1156,6 +1156,9 @@
   </si>
   <si>
     <t>Weiterhin an NavigateCourse gearbeitet, neuen Mount für Sensor angebracht und mittleren Sensor befestigt</t>
+  </si>
+  <si>
+    <t>Roboter komplett durchgefahren, alle Komponenten völlig funktionsfähig, dauer 1:15m</t>
   </si>
 </sst>
 </file>
@@ -1874,6 +1877,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1892,32 +1919,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2428,14 +2431,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="108" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
@@ -2484,10 +2487,10 @@
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="114" t="s">
+      <c r="E7" s="109" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="114"/>
+      <c r="F7" s="109"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
@@ -2496,8 +2499,8 @@
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
       <c r="D8" s="14"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
@@ -2506,8 +2509,8 @@
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
@@ -2516,8 +2519,8 @@
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="112"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
@@ -2526,8 +2529,8 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="4"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D12" s="17"/>
@@ -2548,49 +2551,49 @@
       <c r="A15" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
+      <c r="B15" s="114"/>
+      <c r="C15" s="114"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="118"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="118"/>
-      <c r="C18" s="118"/>
-      <c r="D18" s="118"/>
-      <c r="E18" s="118"/>
-      <c r="F18" s="118"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="112"/>
-      <c r="C19" s="112"/>
-      <c r="D19" s="112"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
@@ -2603,74 +2606,64 @@
       <c r="F22" s="20"/>
     </row>
     <row r="23" spans="1:6" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113" t="s">
+      <c r="A23" s="121" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="113"/>
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="121"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="109" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="114"/>
-      <c r="C26" s="114"/>
-      <c r="D26" s="114" t="s">
+      <c r="B26" s="109"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="109"/>
     </row>
     <row r="27" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109" t="s">
+      <c r="A27" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="109"/>
-      <c r="C27" s="109"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="115"/>
-      <c r="F27" s="115"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
     </row>
     <row r="28" spans="1:6" s="23" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="108" t="s">
+      <c r="A28" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="108"/>
-      <c r="C28" s="108"/>
-      <c r="D28" s="109" t="s">
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117" t="s">
         <v>204</v>
       </c>
-      <c r="E28" s="109"/>
-      <c r="F28" s="109"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="118" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="A29:C29"/>
@@ -2681,6 +2674,16 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="D27:F27"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2754,11 +2757,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
     </row>
     <row r="3" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="123" t="s">
@@ -3601,16 +3604,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="108" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
     </row>
     <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
@@ -5831,8 +5834,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6037,10 +6040,16 @@
         <v>239</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="40">
+        <v>45369</v>
+      </c>
+      <c r="B20" s="41">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="41"/>
